--- a/data dan database/Kelas XI.xlsx
+++ b/data dan database/Kelas XI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-voting-master\data dan database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE1638-368A-442E-8898-B932A483B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="11175" windowHeight="3540" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XI RPL" sheetId="5" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -318,13 +324,49 @@
   </si>
   <si>
     <t>P : 8</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xi tb</t>
+  </si>
+  <si>
+    <t>tbvoting</t>
+  </si>
+  <si>
+    <t>xi bkp</t>
+  </si>
+  <si>
+    <t>bkpxivote</t>
+  </si>
+  <si>
+    <t>xi tkro</t>
+  </si>
+  <si>
+    <t>xitkrovote</t>
+  </si>
+  <si>
+    <t>xi mm</t>
+  </si>
+  <si>
+    <t>xiimmvoting</t>
+  </si>
+  <si>
+    <t>xi rpl</t>
+  </si>
+  <si>
+    <t>xirplvote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,8 +392,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +425,14 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -385,12 +455,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,12 +487,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -704,1221 +799,1321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
-      <c r="A3" s="4">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1011432</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1011433</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1011434</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1011435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1011436</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1011437</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1011438</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1011439</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1011440</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1011441</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1011442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1011443</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1011444</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1011445</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1011446</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1011447</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1011448</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1011449</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1011450</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2011451</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2011452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2011453</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2011454</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2011455</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2011456</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2011457</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2011458</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2011459</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2011460</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2011461</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2011462</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2011463</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>2011464</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2011465</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>2011466</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>2011467</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2011468</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1">
-      <c r="A22" s="4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>2011469</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1">
-      <c r="A23" s="4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>2011470</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1">
-      <c r="A24" s="4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2011471</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1">
-      <c r="A25" s="4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>2011472</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3011473</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3011474</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3011475</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3011476</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3011477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3011478</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>3011479</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3011480</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>3011481</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3011483</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>3011484</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>3011485</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3011486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3011487</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3011489</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>3011490</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3011492</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>3011493</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
-      <c r="A3" s="4">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>4011494</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="D3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4011495</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4011496</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4011497</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4011499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4011500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4011501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4011502</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4011503</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4011504</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4011505</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>4011506</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>4011507</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4011508</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4011509</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>4011510</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>4011512</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>4011513</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
-      <c r="A3" s="4">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5011514</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="4">
+      <c r="D3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5011515</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="4">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5011516</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5011517</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>5011518</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>5011519</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5011520</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5011521</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>5011522</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5011523</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>5011524</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>5011525</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5011526</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>5011527</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5011528</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5011529</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>5011530</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>5011531</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>